--- a/Data/Sample/SampleTestData.xlsx
+++ b/Data/Sample/SampleTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allen.Burgess\source\repos\selenium-boilerplate\SeleniumBoilerplate\Data\Sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DD2CF8-F006-4A00-8C8B-CEC4112CE10A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B01337-C645-44F6-B491-12A58C061C0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24240" yWindow="1365" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21270" yWindow="-3900" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Key</t>
+    <t>SearchTerm</t>
   </si>
   <si>
-    <t>Value</t>
+    <t>Selenium</t>
   </si>
 </sst>
 </file>
@@ -360,10 +360,13 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D6" sqref="C6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
